--- a/ED_Figure_9c_source_data.xlsx
+++ b/ED_Figure_9c_source_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">gene</t>
   </si>
@@ -65,12 +65,24 @@
     <t xml:space="preserve">Primed-hiPSC</t>
   </si>
   <si>
+    <t xml:space="preserve">RL1752_1772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RL1982</t>
   </si>
   <si>
-    <t xml:space="preserve">MEL1</t>
-  </si>
-  <si>
     <t xml:space="preserve">RL1983</t>
   </si>
   <si>
@@ -81,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">RL1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL2351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL2352</t>
   </si>
   <si>
     <t xml:space="preserve">RL2560</t>
@@ -824,16 +842,16 @@
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>0.847457627118644</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -844,16 +862,16 @@
         <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>0.384615384615385</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -864,16 +882,16 @@
         <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>0.333333333333333</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -884,16 +902,16 @@
         <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.0803571428571429</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -904,16 +922,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>0.510204081632653</v>
+        <v>0.233333333333333</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -924,16 +942,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>0.914893617021277</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -941,19 +959,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>0.970588235294118</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -961,19 +979,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>0.571428571428571</v>
+        <v>0.772277227722772</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -981,19 +999,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>0.688888888888889</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -1001,19 +1019,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>0.150943396226415</v>
+        <v>0.113207547169811</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -1021,19 +1039,19 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>0.451612903225806</v>
+        <v>0.641509433962264</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1041,19 +1059,19 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>0.630952380952381</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1061,19 +1079,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>0.853658536585366</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -1081,19 +1099,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>0.645161290322581</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1101,19 +1119,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>0.775510204081633</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -1121,19 +1139,19 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>0.278481012658228</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -1141,19 +1159,19 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36" t="n">
-        <v>0.483870967741935</v>
+        <v>0.510204081632653</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -1161,19 +1179,19 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>0.864864864864865</v>
+        <v>0.3</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1181,19 +1199,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>0.967741935483871</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -1201,19 +1219,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>0.583333333333333</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -1221,19 +1239,19 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>0.914285714285714</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1241,19 +1259,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>0.191489361702128</v>
+        <v>0.150943396226415</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1261,19 +1279,19 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
-        <v>0.630434782608696</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1281,19 +1299,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>0.589041095890411</v>
+        <v>0.630952380952381</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1301,19 +1319,19 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.712121212121212</v>
+        <v>0.853658536585366</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
@@ -1321,19 +1339,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
-        <v>0.388888888888889</v>
+        <v>0.645161290322581</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1341,19 +1359,19 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179487179487179</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1361,19 +1379,19 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0353982300884956</v>
+        <v>0.278481012658228</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -1381,19 +1399,19 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3125</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
@@ -1401,19 +1419,19 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" t="n">
-        <v>0.247619047619048</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -1421,19 +1439,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
-        <v>0.840909090909091</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1441,19 +1459,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C51" t="n">
-        <v>0.676767676767677</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
@@ -1461,19 +1479,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>0.868852459016393</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -1481,19 +1499,19 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
-        <v>0.11965811965812</v>
+        <v>0.191489361702128</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1501,19 +1519,19 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>0.464788732394366</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1521,19 +1539,19 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
-        <v>0.807692307692308</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -1541,19 +1559,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C56" t="n">
-        <v>0.666666666666667</v>
+        <v>0.855670103092783</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
@@ -1561,19 +1579,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" t="n">
-        <v>0.368932038834951</v>
+        <v>0.21551724137931</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
@@ -1581,19 +1599,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>0.679012345679012</v>
+        <v>0.602564102564103</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -1601,19 +1619,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172932330827068</v>
+        <v>0.0575539568345324</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -1621,19 +1639,19 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C60" t="n">
-        <v>0.268292682926829</v>
+        <v>0.190909090909091</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1641,19 +1659,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6</v>
+        <v>0.706422018348624</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1661,19 +1679,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.913461538461538</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -1681,19 +1699,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0481927710843374</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -1701,19 +1719,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>0.271739130434783</v>
+        <v>0.848484848484849</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
@@ -1721,19 +1739,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0470588235294118</v>
+        <v>0.147368421052632</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -1741,19 +1759,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0983606557377049</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -1761,19 +1779,19 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>0.109375</v>
+        <v>0.786407766990291</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -1781,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
-        <v>0.895833333333333</v>
+        <v>0.712121212121212</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -1793,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -1801,10 +1819,10 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>0.515151515151515</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -1813,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -1821,10 +1839,10 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
-        <v>0.867924528301887</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -1833,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
@@ -1841,10 +1859,10 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
-        <v>0.189542483660131</v>
+        <v>0.0353982300884956</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -1853,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -1861,10 +1879,10 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
-        <v>0.584415584415584</v>
+        <v>0.3125</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -1873,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -1881,10 +1899,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C73" t="n">
-        <v>0.824561403508772</v>
+        <v>0.247619047619048</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -1893,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -1901,19 +1919,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>0.583333333333333</v>
+        <v>0.840909090909091</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -1921,19 +1939,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
-        <v>0.463768115942029</v>
+        <v>0.676767676767677</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -1941,19 +1959,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
-        <v>0.868421052631579</v>
+        <v>0.868852459016393</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -1961,19 +1979,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170454545454545</v>
+        <v>0.11965811965812</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -1981,19 +1999,19 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
-        <v>0.342857142857143</v>
+        <v>0.464788732394366</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2001,19 +2019,19 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>0.808510638297872</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -2021,13 +2039,13 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="n">
-        <v>0.818181818181818</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2041,13 +2059,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C81" t="n">
-        <v>0.555555555555556</v>
+        <v>0.368932038834951</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2061,13 +2079,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" t="n">
-        <v>0.875</v>
+        <v>0.679012345679012</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2081,13 +2099,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C83" t="n">
-        <v>0.175</v>
+        <v>0.172932330827068</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2101,13 +2119,13 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C84" t="n">
-        <v>0.254237288135593</v>
+        <v>0.268292682926829</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2121,13 +2139,13 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C85" t="n">
-        <v>0.647058823529412</v>
+        <v>0.6</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -2141,19 +2159,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>0.85</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -2161,19 +2179,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" t="n">
-        <v>0.592105263157895</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -2181,19 +2199,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C88" t="n">
-        <v>0.847826086956522</v>
+        <v>0.271739130434783</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -2201,19 +2219,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
-        <v>0.204379562043796</v>
+        <v>0.0470588235294118</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2221,19 +2239,19 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C90" t="n">
-        <v>0.490909090909091</v>
+        <v>0.0983606557377049</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2241,18 +2259,498 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C91" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.515151515151515</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.867924528301887</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.189542483660131</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.584415584415584</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.824561403508772</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.170454545454545</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.342857142857143</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.808510638297872</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.254237288135593</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.592105263157895</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.204379562043796</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.490909090909091</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" t="n">
         <v>0.683544303797468</v>
       </c>
-      <c r="D91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
         <v>14</v>
       </c>
     </row>
